--- a/archivosSubir/colores.xlsx
+++ b/archivosSubir/colores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>BLANCA</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>GRIS</t>
+  </si>
+  <si>
+    <t>assets/images/icons/negro.png</t>
+  </si>
+  <si>
+    <t>assets/images/icons/negro_cromo.png</t>
   </si>
 </sst>
 </file>
@@ -58,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -96,7 +102,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -383,55 +389,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>

--- a/archivosSubir/colores.xlsx
+++ b/archivosSubir/colores.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>BLANCA</t>
   </si>
@@ -57,6 +61,30 @@
   </si>
   <si>
     <t>assets/images/icons/negro_cromo.png</t>
+  </si>
+  <si>
+    <t>assets/images/icons/blanco.png</t>
+  </si>
+  <si>
+    <t>assets/images/icons/verde.png</t>
+  </si>
+  <si>
+    <t>assets/images/icons/azul.png</t>
+  </si>
+  <si>
+    <t>assets/images/icons/salmon.png</t>
+  </si>
+  <si>
+    <t>assets/images/icons/gris.png</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>imgColor</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -391,16 +419,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -427,28 +462,170 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>